--- a/Scrum Event Role Matrix.xlsx
+++ b/Scrum Event Role Matrix.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
   <si>
     <t>Sprint Planning</t>
   </si>
@@ -48,15 +48,6 @@
   </si>
   <si>
     <t xml:space="preserve">Scrum Users and Event Matrix: Who Does what and when? </t>
-  </si>
-  <si>
-    <t>Scrum Master (1*)</t>
-  </si>
-  <si>
-    <t>Development Team (3 to 9)</t>
-  </si>
-  <si>
-    <t>Product Owner [1]</t>
   </si>
   <si>
     <t>Scrum Users</t>
@@ -548,7 +539,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -590,11 +581,11 @@
     </row>
     <row r="5" spans="2:8" ht="174" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -603,7 +594,7 @@
     </row>
     <row r="6" spans="2:8" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -614,13 +605,13 @@
     </row>
     <row r="7" spans="2:8" ht="261" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -629,11 +620,11 @@
     </row>
     <row r="8" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -646,7 +637,7 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -680,17 +671,17 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -702,7 +693,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
@@ -719,12 +710,12 @@
         <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
@@ -732,7 +723,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
@@ -740,7 +731,7 @@
     </row>
     <row r="10" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -749,12 +740,12 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>5</v>
@@ -766,7 +757,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -783,7 +774,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -794,7 +785,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="8"/>
@@ -802,7 +793,7 @@
     </row>
     <row r="18" spans="2:6" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -811,12 +802,12 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>5</v>
@@ -828,7 +819,7 @@
         <v>6</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
@@ -860,7 +851,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -869,12 +860,12 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>5</v>
@@ -886,7 +877,7 @@
         <v>6</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
@@ -918,7 +909,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -927,12 +918,12 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B38" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>5</v>
@@ -944,7 +935,7 @@
         <v>6</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -976,7 +967,7 @@
     </row>
     <row r="42" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
